--- a/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDA05DE-2005-4A96-BA4D-8163FBF3ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F779F8-3391-4498-93B4-A216FB49386B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1804CC7E-04B1-4D99-9464-3C2A8DC5ED18}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB59050B-E3CA-418E-BD8A-6B655966B1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="589">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>15,9%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -104,1726 +104,1708 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D35DA3-CBCA-4598-9829-0E75B56D7E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588E804-148D-45A1-B925-8D220E1D3A05}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3061,10 +3043,10 @@
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3076,13 @@
         <v>69014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>132</v>
@@ -3109,13 +3091,13 @@
         <v>124137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3153,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3189,7 +3171,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3198,13 +3180,13 @@
         <v>1141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3213,13 +3195,13 @@
         <v>1141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3216,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3249,13 +3231,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3264,13 +3246,13 @@
         <v>6573</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3267,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3300,13 +3282,13 @@
         <v>37813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -3315,13 +3297,13 @@
         <v>62879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3359,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3395,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3410,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3425,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3461,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3476,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3476,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -3509,7 +3491,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>32</v>
@@ -3524,7 +3506,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>32</v>
@@ -3583,7 +3565,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3595,13 +3577,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3610,13 +3592,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3625,13 +3607,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3661,13 +3643,13 @@
         <v>1036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3676,13 +3658,13 @@
         <v>1036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,10 +3679,10 @@
         <v>105090</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -3712,13 +3694,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>221</v>
@@ -3727,13 +3709,13 @@
         <v>219154</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3771,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3807,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3816,13 +3798,13 @@
         <v>2369</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3831,13 +3813,13 @@
         <v>2369</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -3867,13 +3849,13 @@
         <v>6702</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3882,13 +3864,13 @@
         <v>6702</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3888,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -3918,13 +3900,13 @@
         <v>144154</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>253</v>
@@ -3933,13 +3915,13 @@
         <v>256047</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4091,13 @@
         <v>494524</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>639</v>
@@ -4124,13 +4106,13 @@
         <v>652403</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>1153</v>
@@ -4139,13 +4121,13 @@
         <v>1146927</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4183,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377981B8-49E3-4D40-AA7F-01269EF5D1E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D86903-956B-479F-AC50-7D99A8C2E216}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4242,7 +4224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4347,39 +4329,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,39 +4374,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,39 +4419,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,39 +4464,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4513,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4546,13 +4528,13 @@
         <v>4467</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4561,13 +4543,13 @@
         <v>6597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4564,13 @@
         <v>2128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4597,13 +4579,13 @@
         <v>4439</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4612,13 +4594,13 @@
         <v>6567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4615,13 @@
         <v>74945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4648,13 +4630,13 @@
         <v>93187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4663,13 +4645,13 @@
         <v>168132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4719,13 @@
         <v>1995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4752,13 +4734,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4767,13 +4749,13 @@
         <v>8552</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4770,13 @@
         <v>992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4803,13 +4785,13 @@
         <v>1067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4818,13 +4800,13 @@
         <v>2059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4821,13 @@
         <v>52754</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4854,13 +4836,13 @@
         <v>72344</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -4869,13 +4851,13 @@
         <v>125099</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4958,13 +4940,13 @@
         <v>1015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4973,7 +4955,7 @@
         <v>1015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -4994,13 +4976,13 @@
         <v>2171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5009,13 +4991,13 @@
         <v>4377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5024,13 +5006,13 @@
         <v>6547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,10 +5027,10 @@
         <v>106137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -5060,13 +5042,13 @@
         <v>129076</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -5075,13 +5057,13 @@
         <v>235214</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5119,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5155,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5170,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5200,13 +5182,13 @@
         <v>4504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5215,13 +5197,13 @@
         <v>1987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5230,13 +5212,13 @@
         <v>6492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5233,13 @@
         <v>27108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5266,10 +5248,10 @@
         <v>47868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5281,13 +5263,13 @@
         <v>74975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5355,13 +5337,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5370,13 +5352,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5385,13 +5367,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5421,13 +5403,13 @@
         <v>1087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5436,13 +5418,13 @@
         <v>2174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,10 +5439,10 @@
         <v>49612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5472,13 +5454,13 @@
         <v>65882</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5487,13 +5469,13 @@
         <v>115494</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +5531,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5561,13 +5543,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5576,13 +5558,13 @@
         <v>2025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5591,13 +5573,13 @@
         <v>4015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5594,13 @@
         <v>4307</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5627,13 +5609,13 @@
         <v>4064</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5642,13 +5624,13 @@
         <v>8370</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5645,13 @@
         <v>105967</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H30" s="7">
         <v>123</v>
@@ -5678,13 +5660,13 @@
         <v>135873</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -5693,13 +5675,13 @@
         <v>241841</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,7 +5737,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5773,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5782,13 +5764,13 @@
         <v>3259</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5797,13 +5779,13 @@
         <v>3259</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5800,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5833,13 +5815,13 @@
         <v>3338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -5848,13 +5830,13 @@
         <v>5535</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,10 +5851,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -5884,13 +5866,13 @@
         <v>157821</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5899,13 +5881,13 @@
         <v>276375</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5955,13 @@
         <v>7172</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -5988,13 +5970,13 @@
         <v>20567</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -6003,13 +5985,13 @@
         <v>27738</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6006,13 @@
         <v>17386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6039,13 +6021,13 @@
         <v>20358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -6057,10 +6039,10 @@
         <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6057,13 @@
         <v>535079</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H38" s="7">
         <v>657</v>
@@ -6090,13 +6072,13 @@
         <v>702050</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -6105,13 +6087,13 @@
         <v>1237129</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,7 +6149,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493B1282-5107-4F35-B101-7666C4DF9283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956A8F98-9C1A-4393-BDF4-5A97F5EA8CFB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6208,7 +6190,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6321,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6336,7 +6318,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6345,13 +6327,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6348,13 @@
         <v>2440</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6387,7 +6369,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6396,13 +6378,13 @@
         <v>3477</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6399,13 @@
         <v>36456</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6432,10 +6414,10 @@
         <v>47228</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6447,7 +6429,7 @@
         <v>83684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>337</v>
@@ -6551,13 +6533,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6560,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6593,7 +6575,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6602,13 +6584,13 @@
         <v>1020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,10 +6605,10 @@
         <v>86275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6638,10 +6620,10 @@
         <v>113881</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -6653,10 +6635,10 @@
         <v>200156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -6733,7 +6715,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6742,13 +6724,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6757,13 +6739,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6775,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6808,13 +6790,13 @@
         <v>2485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,10 +6811,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6844,13 +6826,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6859,13 +6841,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6921,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6984,13 +6966,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6999,13 +6981,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7014,13 +6996,13 @@
         <v>3946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,10 +7017,10 @@
         <v>62940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7050,10 +7032,10 @@
         <v>89400</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7065,13 +7047,13 @@
         <v>152339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,7 +7109,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7145,7 +7127,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7160,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7175,7 +7157,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7178,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7211,7 +7193,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7226,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7226,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>32</v>
@@ -7259,7 +7241,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -7333,7 +7315,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7345,13 +7327,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7360,13 +7342,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7375,13 +7357,13 @@
         <v>5205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7378,13 @@
         <v>4017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7411,13 +7393,13 @@
         <v>3260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7426,13 +7408,13 @@
         <v>7277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7429,13 @@
         <v>41677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7462,13 +7444,13 @@
         <v>61675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7477,13 +7459,13 @@
         <v>103352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,7 +7521,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7554,10 +7536,10 @@
         <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7566,13 +7548,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7581,13 +7563,13 @@
         <v>3987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>149</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7584,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7620,10 +7602,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7632,13 +7614,13 @@
         <v>4742</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7635,13 @@
         <v>108579</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -7668,13 +7650,13 @@
         <v>142502</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7683,13 +7665,13 @@
         <v>251081</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>422</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,7 +7727,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7763,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7778,7 +7760,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7793,7 +7775,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7790,13 @@
         <v>809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7823,13 +7805,13 @@
         <v>2553</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -7838,13 +7820,13 @@
         <v>3362</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,10 +7841,10 @@
         <v>133359</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7874,10 +7856,10 @@
         <v>173744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -7889,13 +7871,13 @@
         <v>307103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7945,13 @@
         <v>5468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7978,13 +7960,13 @@
         <v>9441</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7993,13 +7975,13 @@
         <v>14909</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +7996,13 @@
         <v>12200</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -8029,13 +8011,13 @@
         <v>14109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -8044,13 +8026,13 @@
         <v>26309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>449</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8047,13 @@
         <v>573660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>636</v>
@@ -8080,13 +8062,13 @@
         <v>754381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>113</v>
+        <v>450</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>454</v>
+        <v>293</v>
       </c>
       <c r="M38" s="7">
         <v>1243</v>
@@ -8095,13 +8077,13 @@
         <v>1328041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +8139,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8181,7 +8163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE32267-D9F1-4F39-AF47-B6B51533B6EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7C3887-FF59-4D42-A9C6-17293B3B7027}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8198,7 +8180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8326,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8341,7 +8323,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8359,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8392,7 +8374,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8410,7 +8392,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -8425,7 +8407,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
@@ -8440,7 +8422,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -8517,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -8526,13 +8508,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8541,13 +8523,13 @@
         <v>2172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8544,13 @@
         <v>939</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -8577,13 +8559,13 @@
         <v>5172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8592,13 +8574,13 @@
         <v>6110</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,10 +8595,10 @@
         <v>85375</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -8628,13 +8610,13 @@
         <v>134013</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -8643,13 +8625,13 @@
         <v>219389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8699,13 @@
         <v>684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -8732,13 +8714,13 @@
         <v>1625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8747,13 +8729,13 @@
         <v>2309</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8750,13 @@
         <v>1284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -8789,7 +8771,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -8798,13 +8780,13 @@
         <v>2475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8801,13 @@
         <v>75633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -8834,13 +8816,13 @@
         <v>92135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -8849,13 +8831,13 @@
         <v>167768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>490</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,7 +8911,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -8938,13 +8920,13 @@
         <v>880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -8953,13 +8935,13 @@
         <v>880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8956,13 @@
         <v>846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8989,13 +8971,13 @@
         <v>1858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -9004,13 +8986,13 @@
         <v>2705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,10 +9007,10 @@
         <v>77959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9040,13 +9022,13 @@
         <v>107717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9055,13 +9037,13 @@
         <v>185675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,7 +9099,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9135,7 +9117,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9150,7 +9132,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9165,7 +9147,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>509</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,13 +9162,13 @@
         <v>2100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9195,13 +9177,13 @@
         <v>7680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -9210,13 +9192,13 @@
         <v>9780</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9213,13 @@
         <v>36231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -9246,13 +9228,13 @@
         <v>57800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9261,13 +9243,13 @@
         <v>94032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9323,7 +9305,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9335,13 +9317,13 @@
         <v>2218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -9350,13 +9332,13 @@
         <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -9365,13 +9347,13 @@
         <v>5687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>14</v>
+        <v>524</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,13 +9368,13 @@
         <v>1104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9401,13 +9383,13 @@
         <v>695</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -9416,13 +9398,13 @@
         <v>1799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>534</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9419,13 @@
         <v>59861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -9452,13 +9434,13 @@
         <v>65689</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -9467,13 +9449,13 @@
         <v>125551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9529,7 +9511,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9547,7 +9529,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9556,13 +9538,13 @@
         <v>2541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -9571,13 +9553,13 @@
         <v>2541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>547</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9592,13 +9574,13 @@
         <v>2394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9607,13 +9589,13 @@
         <v>4408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -9622,13 +9604,13 @@
         <v>6802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>526</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9643,13 +9625,13 @@
         <v>128446</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -9658,13 +9640,13 @@
         <v>251356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>91</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -9676,10 +9658,10 @@
         <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9735,7 +9717,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9753,7 +9735,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>409</v>
+        <v>554</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -9762,13 +9744,13 @@
         <v>3974</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9777,13 +9759,13 @@
         <v>3974</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>408</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9798,13 +9780,13 @@
         <v>4331</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -9813,13 +9795,13 @@
         <v>15214</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -9828,13 +9810,13 @@
         <v>19545</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,13 +9831,13 @@
         <v>164903</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>419</v>
+        <v>571</v>
       </c>
       <c r="H34" s="7">
         <v>318</v>
@@ -9864,13 +9846,13 @@
         <v>203855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>574</v>
+        <v>280</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>575</v>
+        <v>274</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M34" s="7">
         <v>546</v>
@@ -9879,13 +9861,13 @@
         <v>368758</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9953,13 +9935,13 @@
         <v>2902</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>137</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -9968,13 +9950,13 @@
         <v>14662</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -9983,13 +9965,13 @@
         <v>17564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10004,13 +9986,13 @@
         <v>12998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>579</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -10019,13 +10001,13 @@
         <v>36217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>581</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M37" s="7">
         <v>82</v>
@@ -10034,13 +10016,13 @@
         <v>49215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +10037,13 @@
         <v>680328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="H38" s="7">
         <v>1622</v>
@@ -10070,13 +10052,13 @@
         <v>974785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M38" s="7">
         <v>2623</v>
@@ -10085,13 +10067,13 @@
         <v>1655114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>592</v>
+        <v>159</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,7 +10129,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F779F8-3391-4498-93B4-A216FB49386B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859BA445-B0F3-4123-BB6B-669D2AD7C7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB59050B-E3CA-418E-BD8A-6B655966B1A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEF35194-2548-4670-AF2A-7E4D46FD3385}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="587">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,1714 +92,1708 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,9%</t>
+    <t>15,62%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,41%</t>
+    <t>15,6%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
   </si>
   <si>
     <t>95,25%</t>
@@ -2217,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588E804-148D-45A1-B925-8D220E1D3A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C80CFC-4C40-4488-9D5B-AA37F6EB9C6F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3288,7 +3282,7 @@
         <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -3297,13 +3291,13 @@
         <v>62879</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3353,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3377,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3392,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3407,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3443,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3458,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3470,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -3491,7 +3485,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>32</v>
@@ -3506,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>32</v>
@@ -3565,7 +3559,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3577,13 +3571,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3592,13 +3586,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3607,13 +3601,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3643,13 +3637,13 @@
         <v>1036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3658,13 +3652,13 @@
         <v>1036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,10 +3673,10 @@
         <v>105090</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -3694,13 +3688,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>221</v>
@@ -3709,13 +3703,13 @@
         <v>219154</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3765,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3789,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3798,13 +3792,13 @@
         <v>2369</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3813,13 +3807,13 @@
         <v>2369</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -3849,13 +3843,13 @@
         <v>6702</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3864,13 +3858,13 @@
         <v>6702</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3882,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -3921,7 +3915,7 @@
         <v>136</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3983,13 @@
         <v>838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4004,13 +3998,13 @@
         <v>6754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4019,13 +4013,13 @@
         <v>7592</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4085,13 @@
         <v>494524</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>639</v>
@@ -4106,13 +4100,13 @@
         <v>652403</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>1153</v>
@@ -4121,13 +4115,13 @@
         <v>1146927</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4177,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D86903-956B-479F-AC50-7D99A8C2E216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224AA28D-7C43-4CEA-AEA5-90A293F6D9DD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4224,7 +4218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4329,39 +4323,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,39 +4368,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,39 +4413,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,39 +4458,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4507,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4528,13 +4522,13 @@
         <v>4467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4543,13 +4537,13 @@
         <v>6597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4558,13 @@
         <v>2128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4579,13 +4573,13 @@
         <v>4439</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4594,13 +4588,13 @@
         <v>6567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4609,13 @@
         <v>74945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4630,13 +4624,13 @@
         <v>93187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4645,13 +4639,13 @@
         <v>168132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4713,13 @@
         <v>1995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4734,13 +4728,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4749,13 +4743,13 @@
         <v>8552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4764,13 @@
         <v>992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4785,13 +4779,13 @@
         <v>1067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4800,13 +4794,13 @@
         <v>2059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4815,13 @@
         <v>52754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4836,13 +4830,13 @@
         <v>72344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -4851,13 +4845,13 @@
         <v>125099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4940,13 +4934,13 @@
         <v>1015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4955,13 +4949,13 @@
         <v>1015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4970,13 @@
         <v>2171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4991,13 +4985,13 @@
         <v>4377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5006,13 +5000,13 @@
         <v>6547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5021,10 @@
         <v>106137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -5042,13 +5036,13 @@
         <v>129076</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -5057,13 +5051,13 @@
         <v>235214</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5152,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5182,13 +5176,13 @@
         <v>4504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5197,13 +5191,13 @@
         <v>1987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5212,13 +5206,13 @@
         <v>6492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5227,13 @@
         <v>27108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5248,10 +5242,10 @@
         <v>47868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5263,13 +5257,13 @@
         <v>74975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5319,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5337,13 +5331,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5352,13 +5346,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5367,13 +5361,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5403,13 +5397,13 @@
         <v>1087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5418,13 +5412,13 @@
         <v>2174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,10 +5433,10 @@
         <v>49612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5454,13 +5448,13 @@
         <v>65882</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5469,13 +5463,13 @@
         <v>115494</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5525,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5543,13 +5537,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5558,13 +5552,13 @@
         <v>2025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5573,13 +5567,13 @@
         <v>4015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5588,13 @@
         <v>4307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5609,13 +5603,13 @@
         <v>4064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5624,13 +5618,13 @@
         <v>8370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5639,13 @@
         <v>105967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H30" s="7">
         <v>123</v>
@@ -5660,13 +5654,13 @@
         <v>135873</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -5675,13 +5669,13 @@
         <v>241841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,7 +5731,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5755,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5764,13 +5758,13 @@
         <v>3259</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5779,13 +5773,13 @@
         <v>3259</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5794,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5815,13 +5809,13 @@
         <v>3338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -5830,13 +5824,13 @@
         <v>5535</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,10 +5845,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -5866,13 +5860,13 @@
         <v>157821</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5881,13 +5875,13 @@
         <v>276375</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5949,13 @@
         <v>7172</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -5973,10 +5967,10 @@
         <v>74</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -5985,13 +5979,13 @@
         <v>27738</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6000,13 @@
         <v>17386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6021,13 +6015,13 @@
         <v>20358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>308</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -6039,10 +6033,10 @@
         <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6051,13 @@
         <v>535079</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H38" s="7">
         <v>657</v>
@@ -6072,13 +6066,13 @@
         <v>702050</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>316</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -6087,13 +6081,13 @@
         <v>1237129</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,7 +6143,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956A8F98-9C1A-4393-BDF4-5A97F5EA8CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFED0B-1354-4A98-90C6-F02C51A311C7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6190,7 +6184,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6303,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6318,7 +6312,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6327,13 +6321,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6342,13 @@
         <v>2440</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6369,7 +6363,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6378,13 +6372,13 @@
         <v>3477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6393,13 @@
         <v>36456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6414,10 +6408,10 @@
         <v>47228</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6426,16 +6420,16 @@
         <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>83684</v>
+        <v>83683</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +6471,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6509,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6518,13 +6512,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6533,13 +6527,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6548,13 @@
         <v>1020</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6575,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6584,13 +6578,13 @@
         <v>1020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,10 +6599,10 @@
         <v>86275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6620,10 +6614,10 @@
         <v>113881</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -6635,10 +6629,10 @@
         <v>200156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -6715,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6724,13 +6718,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6739,13 +6733,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6754,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6775,13 +6769,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6790,13 +6784,13 @@
         <v>2485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,10 +6805,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6826,13 +6820,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6841,13 +6835,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6966,13 +6960,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6981,13 +6975,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6996,13 +6990,13 @@
         <v>3946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,10 +7011,10 @@
         <v>62940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7032,10 +7026,10 @@
         <v>89400</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7047,13 +7041,13 @@
         <v>152339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7142,7 +7136,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7157,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7193,7 +7187,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7208,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,7 +7220,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>32</v>
@@ -7241,7 +7235,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -7315,7 +7309,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7327,13 +7321,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7342,13 +7336,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7357,13 +7351,13 @@
         <v>5205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7372,13 @@
         <v>4017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7393,13 +7387,13 @@
         <v>3260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7408,13 +7402,13 @@
         <v>7277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7423,13 @@
         <v>41677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7444,13 +7438,13 @@
         <v>61675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7459,13 +7453,13 @@
         <v>103352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>46</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,7 +7515,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7533,13 +7527,13 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7548,13 +7542,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7563,13 +7557,13 @@
         <v>3987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7578,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7602,10 +7596,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7614,13 +7608,13 @@
         <v>4742</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7629,13 @@
         <v>108579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -7650,13 +7644,13 @@
         <v>142502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7665,13 +7659,13 @@
         <v>251081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7721,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7745,7 +7739,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7760,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7775,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7784,13 @@
         <v>809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7805,13 +7799,13 @@
         <v>2553</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -7820,13 +7814,13 @@
         <v>3362</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>429</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,10 +7835,10 @@
         <v>133359</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7856,10 +7850,10 @@
         <v>173744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>431</v>
+        <v>300</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -7871,13 +7865,13 @@
         <v>307103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7939,13 @@
         <v>5468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7960,13 +7954,13 @@
         <v>9441</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7975,13 +7969,13 @@
         <v>14909</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>410</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +7990,13 @@
         <v>12200</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -8011,13 +8005,13 @@
         <v>14109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>440</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>287</v>
+        <v>441</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -8026,13 +8020,13 @@
         <v>26309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>107</v>
+        <v>443</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8041,13 @@
         <v>573660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="H38" s="7">
         <v>636</v>
@@ -8062,13 +8056,13 @@
         <v>754381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>1243</v>
@@ -8077,13 +8071,13 @@
         <v>1328041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8133,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -8163,7 +8157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7C3887-FF59-4D42-A9C6-17293B3B7027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32282A82-939C-4B14-8289-5342CB9668AD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8180,7 +8174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8308,7 +8302,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8323,7 +8317,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,7 +8353,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8374,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,7 +8386,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -8407,7 +8401,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
@@ -8422,7 +8416,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -8499,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -8508,13 +8502,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8523,13 +8517,13 @@
         <v>2172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8538,13 @@
         <v>939</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -8559,13 +8553,13 @@
         <v>5172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>463</v>
+        <v>235</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8574,13 +8568,13 @@
         <v>6110</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,10 +8589,10 @@
         <v>85375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -8610,13 +8604,13 @@
         <v>134013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -8625,13 +8619,13 @@
         <v>219389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8699,13 +8693,13 @@
         <v>684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -8714,13 +8708,13 @@
         <v>1625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8729,13 +8723,13 @@
         <v>2309</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8750,13 +8744,13 @@
         <v>1284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -8771,7 +8765,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -8780,13 +8774,13 @@
         <v>2475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,13 +8795,13 @@
         <v>75633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -8816,13 +8810,13 @@
         <v>92135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -8831,13 +8825,13 @@
         <v>167768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,7 +8905,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -8920,7 +8914,7 @@
         <v>880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -8935,13 +8929,13 @@
         <v>880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,7 +8950,7 @@
         <v>846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -8971,13 +8965,13 @@
         <v>1858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -8986,13 +8980,13 @@
         <v>2705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,10 +9001,10 @@
         <v>77959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9022,13 +9016,13 @@
         <v>107717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9037,13 +9031,13 @@
         <v>185675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>500</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>502</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,7 +9111,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9132,7 +9126,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9147,7 +9141,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9162,13 +9156,13 @@
         <v>2100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>466</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9177,13 +9171,13 @@
         <v>7680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -9192,13 +9186,13 @@
         <v>9780</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9207,13 @@
         <v>36231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -9228,13 +9222,13 @@
         <v>57800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9243,13 +9237,13 @@
         <v>94032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9305,7 +9299,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9317,13 +9311,13 @@
         <v>2218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -9332,13 +9326,13 @@
         <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -9347,13 +9341,13 @@
         <v>5687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>523</v>
+        <v>296</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9362,13 @@
         <v>1104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9383,13 +9377,13 @@
         <v>695</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -9398,10 +9392,10 @@
         <v>1799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>53</v>
@@ -9419,13 +9413,13 @@
         <v>59861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -9434,13 +9428,13 @@
         <v>65689</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -9449,13 +9443,13 @@
         <v>125551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,7 +9505,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9529,7 +9523,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9538,13 +9532,13 @@
         <v>2541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -9553,13 +9547,13 @@
         <v>2541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9574,13 +9568,13 @@
         <v>2394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9589,13 +9583,13 @@
         <v>4408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>143</v>
+        <v>542</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -9604,13 +9598,13 @@
         <v>6802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9625,13 +9619,13 @@
         <v>128446</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -9640,13 +9634,13 @@
         <v>251356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -9658,10 +9652,10 @@
         <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9717,7 +9711,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9735,7 +9729,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>554</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -9744,13 +9738,13 @@
         <v>3974</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9759,13 +9753,13 @@
         <v>3974</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9780,13 +9774,13 @@
         <v>4331</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>561</v>
+        <v>443</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -9795,13 +9789,13 @@
         <v>15214</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -9810,13 +9804,13 @@
         <v>19545</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,13 +9825,13 @@
         <v>164903</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H34" s="7">
         <v>318</v>
@@ -9846,13 +9840,13 @@
         <v>203855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>280</v>
+        <v>569</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>274</v>
+        <v>570</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>572</v>
+        <v>393</v>
       </c>
       <c r="M34" s="7">
         <v>546</v>
@@ -9861,13 +9855,13 @@
         <v>368758</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9935,13 +9929,13 @@
         <v>2902</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -9950,10 +9944,10 @@
         <v>14662</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>575</v>
+        <v>295</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>14</v>
@@ -9965,13 +9959,13 @@
         <v>17564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>577</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9986,13 +9980,13 @@
         <v>12998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -10001,13 +9995,13 @@
         <v>36217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M37" s="7">
         <v>82</v>
@@ -10016,13 +10010,13 @@
         <v>49215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>84</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,10 +10031,10 @@
         <v>680328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>45</v>
@@ -10052,13 +10046,13 @@
         <v>974785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M38" s="7">
         <v>2623</v>
@@ -10067,13 +10061,13 @@
         <v>1655114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>159</v>
+        <v>584</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10129,7 +10123,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859BA445-B0F3-4123-BB6B-669D2AD7C7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6AC3C4-0918-4E90-ABB9-2702C1FF76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEF35194-2548-4670-AF2A-7E4D46FD3385}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C4F7499-CBB5-4258-ADDF-833F6CAE250C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,22 +92,22 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,6%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,38%</t>
+    <t>83,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,16 +125,16 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>84,4%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,1657 +149,1681 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,41%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C80CFC-4C40-4488-9D5B-AA37F6EB9C6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A947D1-46E5-4343-BA43-1D3AF365FDA5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3037,10 +3061,10 @@
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3094,13 @@
         <v>69014</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>132</v>
@@ -3085,13 +3109,13 @@
         <v>124137</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3171,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3165,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3174,13 +3198,13 @@
         <v>1141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3189,13 +3213,13 @@
         <v>1141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3234,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3225,13 +3249,13 @@
         <v>2291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3240,13 +3264,13 @@
         <v>6573</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3285,13 @@
         <v>25066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3276,13 +3300,13 @@
         <v>37813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -3291,13 +3315,13 @@
         <v>62879</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,7 +3377,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3371,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3386,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3401,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3437,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3452,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,7 +3494,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
@@ -3485,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>32</v>
@@ -3500,7 +3524,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>32</v>
@@ -3559,7 +3583,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3571,13 +3595,13 @@
         <v>838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3586,13 +3610,13 @@
         <v>2021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3601,13 +3625,13 @@
         <v>2859</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3637,13 +3661,13 @@
         <v>1036</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3652,13 +3676,13 @@
         <v>1036</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3697,10 @@
         <v>105090</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -3688,13 +3712,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>221</v>
@@ -3703,13 +3727,13 @@
         <v>219154</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3789,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3783,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3792,13 +3816,13 @@
         <v>2369</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3807,13 +3831,13 @@
         <v>2369</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -3843,13 +3867,13 @@
         <v>6702</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3858,13 +3882,13 @@
         <v>6702</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,7 +3906,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -3894,13 +3918,13 @@
         <v>144154</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>253</v>
@@ -3909,13 +3933,13 @@
         <v>256047</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +4007,13 @@
         <v>838</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3998,13 +4022,13 @@
         <v>6754</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4013,13 +4037,13 @@
         <v>7592</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224AA28D-7C43-4CEA-AEA5-90A293F6D9DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408CDDE-7CAC-414F-BB29-35D932FC5CB7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,10 +4564,10 @@
         <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4573,13 +4597,13 @@
         <v>4439</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4588,13 +4612,13 @@
         <v>6567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4633,13 @@
         <v>74945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4624,13 +4648,13 @@
         <v>93187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4639,13 +4663,13 @@
         <v>168132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4737,13 @@
         <v>1995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4728,10 +4752,10 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>193</v>
@@ -4794,13 +4818,13 @@
         <v>2059</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4839,13 @@
         <v>52754</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4830,13 +4854,13 @@
         <v>72344</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -4845,13 +4869,13 @@
         <v>125099</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4934,13 +4958,13 @@
         <v>1015</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4949,13 +4973,13 @@
         <v>1015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4994,13 @@
         <v>2171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4985,13 +5009,13 @@
         <v>4377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5000,13 +5024,13 @@
         <v>6547</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,10 +5045,10 @@
         <v>106137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -5036,13 +5060,13 @@
         <v>129076</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -5051,13 +5075,13 @@
         <v>235214</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,7 +5137,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5131,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5146,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5176,13 +5200,13 @@
         <v>4504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5191,13 +5215,13 @@
         <v>1987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5206,13 +5230,13 @@
         <v>6492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5251,13 @@
         <v>27108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5242,10 +5266,10 @@
         <v>47868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5257,13 +5281,13 @@
         <v>74975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5343,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5331,13 +5355,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5346,13 +5370,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5361,13 +5385,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,7 +5412,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5397,13 +5421,13 @@
         <v>1087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5418,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,10 +5457,10 @@
         <v>49612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5448,13 +5472,13 @@
         <v>65882</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5463,13 +5487,13 @@
         <v>115494</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,7 +5549,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5537,13 +5561,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5552,13 +5576,13 @@
         <v>2025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5567,13 +5591,13 @@
         <v>4015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5612,13 @@
         <v>4307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5603,13 +5627,13 @@
         <v>4064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5618,13 +5642,13 @@
         <v>8370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5663,13 @@
         <v>105967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H30" s="7">
         <v>123</v>
@@ -5654,13 +5678,13 @@
         <v>135873</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -5669,13 +5693,13 @@
         <v>241841</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,7 +5755,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5749,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5758,13 +5782,13 @@
         <v>3259</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5773,13 +5797,13 @@
         <v>3259</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5818,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5809,13 +5833,13 @@
         <v>3338</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -5824,13 +5848,13 @@
         <v>5535</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,10 +5869,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -5860,13 +5884,13 @@
         <v>157821</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5875,13 +5899,13 @@
         <v>276375</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5973,13 @@
         <v>7172</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -5964,13 +5988,13 @@
         <v>20567</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -5979,13 +6003,13 @@
         <v>27738</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6024,13 @@
         <v>17386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6015,13 +6039,13 @@
         <v>20358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -6033,10 +6057,10 @@
         <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6075,13 @@
         <v>535079</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H38" s="7">
         <v>657</v>
@@ -6066,13 +6090,13 @@
         <v>702050</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>69</v>
+        <v>319</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -6081,13 +6105,13 @@
         <v>1237129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFED0B-1354-4A98-90C6-F02C51A311C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3C1B7-4778-40C1-AE17-B3BE0BF52728}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6184,7 +6208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6297,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6312,7 +6336,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6321,13 +6345,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6366,13 @@
         <v>2440</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6363,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6372,13 +6396,13 @@
         <v>3477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6417,13 @@
         <v>36456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6408,10 +6432,10 @@
         <v>47228</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6420,16 +6444,16 @@
         <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>83683</v>
+        <v>83684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6495,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6503,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6512,13 +6536,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6527,13 +6551,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6572,13 @@
         <v>1020</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6569,7 +6593,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6578,13 +6602,13 @@
         <v>1020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,10 +6623,10 @@
         <v>86275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6614,10 +6638,10 @@
         <v>113881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -6629,10 +6653,10 @@
         <v>200156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -6709,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6718,13 +6742,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6733,13 +6757,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6778,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6769,13 +6793,13 @@
         <v>1233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6784,13 +6808,13 @@
         <v>2485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,10 +6829,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6820,13 +6844,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -6835,13 +6859,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6960,13 +6984,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6975,13 +6999,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -6990,13 +7014,13 @@
         <v>3946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,10 +7035,10 @@
         <v>62940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7026,10 +7050,10 @@
         <v>89400</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7041,13 +7065,13 @@
         <v>152339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,7 +7127,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7121,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7136,7 +7160,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7151,7 +7175,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7187,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7202,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7244,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>32</v>
@@ -7235,7 +7259,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -7309,7 +7333,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7321,13 +7345,13 @@
         <v>2752</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7342,7 +7366,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7351,13 +7375,13 @@
         <v>5205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7396,13 @@
         <v>4017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7387,13 +7411,13 @@
         <v>3260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7402,13 +7426,13 @@
         <v>7277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7447,13 @@
         <v>41677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7438,13 +7462,13 @@
         <v>61675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7453,13 +7477,13 @@
         <v>103352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,7 +7539,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7527,13 +7551,13 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7542,13 +7566,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7557,13 +7581,13 @@
         <v>3987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7602,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7596,10 +7620,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7608,13 +7632,13 @@
         <v>4742</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7653,13 @@
         <v>108579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>416</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -7644,13 +7668,13 @@
         <v>142502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7659,13 +7683,13 @@
         <v>251081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,7 +7745,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7739,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7754,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7769,7 +7793,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7808,13 @@
         <v>809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7799,13 +7823,13 @@
         <v>2553</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -7814,13 +7838,13 @@
         <v>3362</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,10 +7859,10 @@
         <v>133359</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7850,10 +7874,10 @@
         <v>173744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>300</v>
+        <v>434</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -7865,13 +7889,13 @@
         <v>307103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7963,13 @@
         <v>5468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>432</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7954,13 +7978,13 @@
         <v>9441</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>433</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7969,13 +7993,13 @@
         <v>14909</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +8014,13 @@
         <v>12200</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -8005,13 +8029,13 @@
         <v>14109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -8020,13 +8044,13 @@
         <v>26309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8065,13 @@
         <v>573660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="H38" s="7">
         <v>636</v>
@@ -8056,13 +8080,13 @@
         <v>754381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>454</v>
       </c>
       <c r="M38" s="7">
         <v>1243</v>
@@ -8071,13 +8095,13 @@
         <v>1328041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +8181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32282A82-939C-4B14-8289-5342CB9668AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C7774B-0321-4E78-B360-5B9E111E7FED}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8174,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8302,7 +8326,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8317,7 +8341,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,7 +8377,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8368,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,7 +8410,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -8401,7 +8425,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
@@ -8416,7 +8440,7 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -8493,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -8502,13 +8526,13 @@
         <v>2172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8517,13 +8541,13 @@
         <v>2172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,13 +8562,13 @@
         <v>939</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -8553,13 +8577,13 @@
         <v>5172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>235</v>
+        <v>465</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>108</v>
+        <v>443</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8568,13 +8592,13 @@
         <v>6110</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,10 +8613,10 @@
         <v>85375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -8604,13 +8628,13 @@
         <v>134013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -8619,13 +8643,13 @@
         <v>219389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,13 +8717,13 @@
         <v>684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -8708,13 +8732,13 @@
         <v>1625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8723,13 +8747,13 @@
         <v>2309</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,13 +8768,13 @@
         <v>1284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -8765,7 +8789,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>476</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -8774,13 +8798,13 @@
         <v>2475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,13 +8819,13 @@
         <v>75633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -8810,13 +8834,13 @@
         <v>92135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -8825,13 +8849,13 @@
         <v>167768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>484</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -8914,13 +8938,13 @@
         <v>880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -8929,13 +8953,13 @@
         <v>880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,13 +8974,13 @@
         <v>846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8965,13 +8989,13 @@
         <v>1858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -8980,13 +9004,13 @@
         <v>2705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,10 +9025,10 @@
         <v>77959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9016,13 +9040,13 @@
         <v>107717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
@@ -9031,13 +9055,13 @@
         <v>185675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>506</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9093,7 +9117,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9111,7 +9135,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9126,7 +9150,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9141,7 +9165,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,13 +9180,13 @@
         <v>2100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9171,13 +9195,13 @@
         <v>7680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -9186,13 +9210,13 @@
         <v>9780</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,13 +9231,13 @@
         <v>36231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -9222,13 +9246,13 @@
         <v>57800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -9237,13 +9261,13 @@
         <v>94032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,7 +9323,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9311,13 +9335,13 @@
         <v>2218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -9326,13 +9350,13 @@
         <v>3469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -9341,13 +9365,13 @@
         <v>5687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>296</v>
+        <v>529</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>520</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9386,13 @@
         <v>1104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9377,13 +9401,13 @@
         <v>695</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -9392,13 +9416,13 @@
         <v>1799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9437,13 @@
         <v>59861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -9428,13 +9452,13 @@
         <v>65689</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -9443,13 +9467,13 @@
         <v>125551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9505,7 +9529,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9523,7 +9547,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -9532,13 +9556,13 @@
         <v>2541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -9547,13 +9571,13 @@
         <v>2541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9568,13 +9592,13 @@
         <v>2394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -9583,13 +9607,13 @@
         <v>4408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -9598,13 +9622,13 @@
         <v>6802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9619,13 +9643,13 @@
         <v>128446</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>547</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -9634,13 +9658,13 @@
         <v>251356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
@@ -9652,10 +9676,10 @@
         <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9711,7 +9735,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9729,7 +9753,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -9741,10 +9765,10 @@
         <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9753,13 +9777,13 @@
         <v>3974</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>557</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9774,13 +9798,13 @@
         <v>4331</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>443</v>
+        <v>564</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
@@ -9789,13 +9813,13 @@
         <v>15214</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -9804,13 +9828,13 @@
         <v>19545</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9825,13 +9849,13 @@
         <v>164903</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>568</v>
+        <v>419</v>
       </c>
       <c r="H34" s="7">
         <v>318</v>
@@ -9840,13 +9864,13 @@
         <v>203855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>546</v>
@@ -9855,13 +9879,13 @@
         <v>368758</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9929,13 +9953,13 @@
         <v>2902</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>138</v>
+        <v>579</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -9944,13 +9968,13 @@
         <v>14662</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>295</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -9959,13 +9983,13 @@
         <v>17564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>127</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9980,13 +10004,13 @@
         <v>12998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>575</v>
+        <v>41</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -9995,13 +10019,13 @@
         <v>36217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>577</v>
+        <v>440</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M37" s="7">
         <v>82</v>
@@ -10010,13 +10034,13 @@
         <v>49215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10031,13 +10055,13 @@
         <v>680328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>588</v>
       </c>
       <c r="H38" s="7">
         <v>1622</v>
@@ -10046,13 +10070,13 @@
         <v>974785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="M38" s="7">
         <v>2623</v>
@@ -10061,13 +10085,13 @@
         <v>1655114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6AC3C4-0918-4E90-ABB9-2702C1FF76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B462D0-CD37-497B-8FC4-B02A0E03AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C4F7499-CBB5-4258-ADDF-833F6CAE250C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77D286B4-74A2-41DF-9B86-80273C72152B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="599">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -536,7 +536,64 @@
     <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -674,1156 +731,1111 @@
     <t>96,13%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A947D1-46E5-4343-BA43-1D3AF365FDA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B13EB-9F36-46AE-B5A1-6D985B86FDB7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4225,7 +4237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5408CDDE-7CAC-414F-BB29-35D932FC5CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CFD9C4-A328-49E9-8D78-0374D0507AA3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,41 +4357,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>165</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1015</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1015</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,43 +4406,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1003</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3204</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4207</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,43 +4457,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43278</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="7">
+        <v>44674</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="N6" s="7">
+        <v>87952</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,43 +4508,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4567,13 @@
         <v>2130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4546,13 +4582,13 @@
         <v>4467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4561,13 +4597,13 @@
         <v>6597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4618,13 @@
         <v>2128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4597,13 +4633,13 @@
         <v>4439</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4612,13 +4648,13 @@
         <v>6567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4669,13 @@
         <v>74945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -4648,13 +4684,13 @@
         <v>93187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4663,13 +4699,13 @@
         <v>168132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4773,13 @@
         <v>1995</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4752,13 +4788,13 @@
         <v>6557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4767,13 +4803,13 @@
         <v>8552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4824,13 @@
         <v>992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4803,13 +4839,13 @@
         <v>1067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4824,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4875,13 @@
         <v>52754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4854,13 +4890,13 @@
         <v>72344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -4869,13 +4905,13 @@
         <v>125099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,37 +4985,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,49 +5024,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1168</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1172</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>2171</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4377</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
       <c r="N17" s="7">
-        <v>6547</v>
+        <v>2340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,49 +5075,49 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>106137</v>
+        <v>62860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I18" s="7">
-        <v>129076</v>
+        <v>84402</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="N18" s="7">
-        <v>235214</v>
+        <v>147262</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,10 +5126,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -5105,10 +5141,10 @@
         <v>32</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -5120,10 +5156,10 @@
         <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5155,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5170,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5200,13 +5236,13 @@
         <v>4504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5215,13 +5251,13 @@
         <v>1987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5230,13 +5266,13 @@
         <v>6492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5287,13 @@
         <v>27108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5266,10 +5302,10 @@
         <v>47868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
@@ -5281,13 +5317,13 @@
         <v>74975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5391,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5370,13 +5406,13 @@
         <v>3243</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -5385,13 +5421,13 @@
         <v>4300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,7 +5448,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5427,7 +5463,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5436,13 +5472,13 @@
         <v>2174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,10 +5493,10 @@
         <v>49612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5472,10 +5508,10 @@
         <v>65882</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>67</v>
@@ -5487,13 +5523,13 @@
         <v>115494</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5597,13 @@
         <v>1989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5576,13 +5612,13 @@
         <v>2025</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5591,7 +5627,7 @@
         <v>4015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>105</v>
@@ -5612,13 +5648,13 @@
         <v>4307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5627,13 +5663,13 @@
         <v>4064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5642,13 +5678,13 @@
         <v>8370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5699,13 @@
         <v>105967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H30" s="7">
         <v>123</v>
@@ -5678,13 +5714,13 @@
         <v>135873</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="M30" s="7">
         <v>218</v>
@@ -5693,13 +5729,13 @@
         <v>241841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5782,13 +5818,13 @@
         <v>3259</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5797,13 +5833,13 @@
         <v>3259</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5854,13 @@
         <v>2197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -5833,13 +5869,13 @@
         <v>3338</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -5848,13 +5884,13 @@
         <v>5535</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,10 +5905,10 @@
         <v>118555</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -5884,13 +5920,13 @@
         <v>157821</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -5899,13 +5935,13 @@
         <v>276375</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,10 +6012,10 @@
         <v>104</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -5991,10 +6027,10 @@
         <v>72</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -6003,13 +6039,13 @@
         <v>27738</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6060,13 @@
         <v>17386</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6039,13 +6075,13 @@
         <v>20358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -6057,10 +6093,10 @@
         <v>34</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6111,13 @@
         <v>535079</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H38" s="7">
         <v>657</v>
@@ -6090,13 +6126,13 @@
         <v>702050</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -6105,10 +6141,10 @@
         <v>1237129</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>96</v>
@@ -6191,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3C1B7-4778-40C1-AE17-B3BE0BF52728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2D7EB2-818F-4886-A8F3-1FFC7AFA86D4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6208,7 +6244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6321,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6336,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6351,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6402,13 @@
         <v>2440</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6387,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6396,13 +6432,13 @@
         <v>3477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6453,13 @@
         <v>36456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>41</v>
@@ -6432,10 +6468,10 @@
         <v>47228</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6450,10 +6486,10 @@
         <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6536,13 +6572,13 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6551,13 +6587,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6608,13 @@
         <v>1020</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6593,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6602,13 +6638,13 @@
         <v>1020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,10 +6659,10 @@
         <v>86275</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6638,10 +6674,10 @@
         <v>113881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -6653,10 +6689,10 @@
         <v>200156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -6733,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6742,13 +6778,13 @@
         <v>3244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6757,13 +6793,13 @@
         <v>3244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6814,13 @@
         <v>1252</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6799,7 +6835,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6814,7 +6850,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,10 +6865,10 @@
         <v>62294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6844,10 +6880,10 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>67</v>
@@ -6859,13 +6895,13 @@
         <v>137714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6975,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6984,13 +7020,13 @@
         <v>1772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6999,13 +7035,13 @@
         <v>2174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -7014,13 +7050,13 @@
         <v>3946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,10 +7071,10 @@
         <v>62940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -7050,10 +7086,10 @@
         <v>89400</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -7065,13 +7101,13 @@
         <v>152339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7160,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7175,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7211,7 +7247,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7226,7 +7262,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7280,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>32</v>
@@ -7259,7 +7295,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -7348,10 +7384,10 @@
         <v>42</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7360,13 +7396,13 @@
         <v>2453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7375,13 +7411,13 @@
         <v>5205</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7432,13 @@
         <v>4017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7411,13 +7447,13 @@
         <v>3260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7426,13 +7462,13 @@
         <v>7277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7483,13 @@
         <v>41677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7462,13 +7498,13 @@
         <v>61675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7477,13 +7513,13 @@
         <v>103352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7587,13 @@
         <v>2716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7566,13 +7602,13 @@
         <v>1271</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7581,13 +7617,13 @@
         <v>3987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7644,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7620,10 +7656,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7632,13 +7668,13 @@
         <v>4742</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7689,13 @@
         <v>108579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -7668,13 +7704,13 @@
         <v>142502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="M30" s="7">
         <v>226</v>
@@ -7683,13 +7719,13 @@
         <v>251081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7778,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7793,7 +7829,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7844,13 @@
         <v>809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -7829,7 +7865,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -7838,13 +7874,13 @@
         <v>3362</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,10 +7895,10 @@
         <v>133359</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7874,10 +7910,10 @@
         <v>173744</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -7889,13 +7925,13 @@
         <v>307103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,10 +8002,10 @@
         <v>129</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -7978,13 +8014,13 @@
         <v>9441</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7993,13 +8029,13 @@
         <v>14909</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8050,13 @@
         <v>12200</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -8029,13 +8065,13 @@
         <v>14109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -8044,13 +8080,13 @@
         <v>26309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8101,13 @@
         <v>573660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H38" s="7">
         <v>636</v>
@@ -8080,13 +8116,13 @@
         <v>754381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M38" s="7">
         <v>1243</v>
@@ -8095,13 +8131,13 @@
         <v>1328041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C7774B-0321-4E78-B360-5B9E111E7FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF67A6-114C-4FB0-8F4B-6DCDFBD644AB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8198,7 +8234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8326,7 +8362,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8377,7 +8413,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8404,13 +8440,13 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -8419,7 +8455,7 @@
         <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -8434,13 +8470,13 @@
         <v>215</v>
       </c>
       <c r="N6" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -8455,7 +8491,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -8470,7 +8506,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -8485,7 +8521,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -8517,37 +8553,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2172</v>
+        <v>1739</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>2172</v>
+        <v>1739</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,46 +8595,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>939</v>
+        <v>865</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>5172</v>
+        <v>4645</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>465</v>
+        <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>6110</v>
+        <v>5510</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,13 +8646,13 @@
         <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>85375</v>
+        <v>79844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -8625,31 +8661,31 @@
         <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>134013</v>
+        <v>122609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
       </c>
       <c r="N10" s="7">
-        <v>219389</v>
+        <v>202451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,7 +8697,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
@@ -8676,7 +8712,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -8691,7 +8727,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -8714,46 +8750,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1625</v>
+        <v>1465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>2309</v>
+        <v>2101</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>493</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,46 +8801,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1284</v>
+        <v>1199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1191</v>
+        <v>1086</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2475</v>
+        <v>2286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>482</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,46 +8852,46 @@
         <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>75633</v>
+        <v>71655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
       </c>
       <c r="I14" s="7">
-        <v>92135</v>
+        <v>84873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
       </c>
       <c r="N14" s="7">
-        <v>167768</v>
+        <v>156528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,7 +8903,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -8882,7 +8918,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
@@ -8897,7 +8933,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -8929,37 +8965,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>880</v>
+        <v>822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>492</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>880</v>
+        <v>822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,46 +9007,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>846</v>
+        <v>754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1858</v>
+        <v>1732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2705</v>
+        <v>2486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,13 +9058,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>77959</v>
+        <v>73914</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9037,31 +9073,31 @@
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>107717</v>
+        <v>101082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>367</v>
       </c>
       <c r="N18" s="7">
-        <v>185675</v>
+        <v>174995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,7 +9109,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -9088,7 +9124,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -9103,7 +9139,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -9135,7 +9171,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9150,7 +9186,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9165,7 +9201,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,46 +9213,46 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>2100</v>
+        <v>1903</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>519</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>440</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
       </c>
       <c r="I21" s="7">
-        <v>7680</v>
+        <v>6848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>9780</v>
+        <v>8751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,46 +9264,46 @@
         <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>36231</v>
+        <v>32913</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
       </c>
       <c r="I22" s="7">
-        <v>57800</v>
+        <v>52398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
       </c>
       <c r="N22" s="7">
-        <v>94032</v>
+        <v>85311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,7 +9315,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>32</v>
@@ -9294,7 +9330,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -9309,7 +9345,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>32</v>
@@ -9332,46 +9368,46 @@
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>2218</v>
+        <v>2099</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>3469</v>
+        <v>3181</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>5687</v>
+        <v>5280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>14</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,46 +9419,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1104</v>
+        <v>1040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>1799</v>
+        <v>1696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>546</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,46 +9470,46 @@
         <v>128</v>
       </c>
       <c r="D26" s="7">
-        <v>59861</v>
+        <v>57122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
       </c>
       <c r="I26" s="7">
-        <v>65689</v>
+        <v>61421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
       </c>
       <c r="N26" s="7">
-        <v>125551</v>
+        <v>118542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,7 +9521,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -9500,7 +9536,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>32</v>
@@ -9515,7 +9551,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>32</v>
@@ -9547,37 +9583,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2541</v>
+        <v>2177</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>2541</v>
+        <v>2177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>547</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9589,46 +9625,46 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2394</v>
+        <v>2300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>556</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>4408</v>
+        <v>4039</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>6802</v>
+        <v>6339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,46 +9676,46 @@
         <v>165</v>
       </c>
       <c r="D30" s="7">
-        <v>128446</v>
+        <v>120954</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
       </c>
       <c r="I30" s="7">
-        <v>251356</v>
+        <v>332469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>351</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>396</v>
       </c>
       <c r="N30" s="7">
-        <v>379802</v>
+        <v>453423</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9727,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>32</v>
@@ -9706,7 +9742,7 @@
         <v>241</v>
       </c>
       <c r="I31" s="7">
-        <v>258305</v>
+        <v>338685</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>32</v>
@@ -9721,7 +9757,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>389145</v>
+        <v>461939</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -9753,37 +9789,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>3974</v>
+        <v>2275</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>197</v>
+        <v>567</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>3974</v>
+        <v>2275</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9795,46 +9831,46 @@
         <v>6</v>
       </c>
       <c r="D33" s="7">
-        <v>4331</v>
+        <v>3686</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>563</v>
+        <v>382</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H33" s="7">
         <v>22</v>
       </c>
       <c r="I33" s="7">
-        <v>15214</v>
+        <v>12432</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
       </c>
       <c r="N33" s="7">
-        <v>19545</v>
+        <v>16117</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>569</v>
+        <v>404</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>571</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9846,46 +9882,46 @@
         <v>228</v>
       </c>
       <c r="D34" s="7">
-        <v>164903</v>
+        <v>142789</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>572</v>
+        <v>388</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>573</v>
+        <v>50</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>419</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>318</v>
       </c>
       <c r="I34" s="7">
-        <v>203855</v>
+        <v>171936</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>546</v>
       </c>
       <c r="N34" s="7">
-        <v>368758</v>
+        <v>314725</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,7 +9933,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>32</v>
@@ -9912,7 +9948,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
@@ -9927,7 +9963,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392277</v>
+        <v>333117</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>32</v>
@@ -9950,46 +9986,46 @@
         <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>2902</v>
+        <v>2735</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
       </c>
       <c r="I36" s="7">
-        <v>14662</v>
+        <v>11658</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>584</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>585</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
       </c>
       <c r="N36" s="7">
-        <v>17564</v>
+        <v>14393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>581</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10001,46 +10037,46 @@
         <v>19</v>
       </c>
       <c r="D37" s="7">
-        <v>12998</v>
+        <v>11748</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>583</v>
+        <v>399</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
       </c>
       <c r="I37" s="7">
-        <v>36217</v>
+        <v>31438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>588</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>327</v>
       </c>
       <c r="M37" s="7">
         <v>82</v>
       </c>
       <c r="N37" s="7">
-        <v>49215</v>
+        <v>43186</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>590</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>586</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10052,46 +10088,46 @@
         <v>1001</v>
       </c>
       <c r="D38" s="7">
-        <v>680328</v>
+        <v>635090</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>588</v>
+        <v>316</v>
       </c>
       <c r="H38" s="7">
         <v>1622</v>
       </c>
       <c r="I38" s="7">
-        <v>974785</v>
+        <v>990196</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M38" s="7">
         <v>2623</v>
       </c>
       <c r="N38" s="7">
-        <v>1655114</v>
+        <v>1625287</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>592</v>
+        <v>134</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10103,7 +10139,7 @@
         <v>1026</v>
       </c>
       <c r="D39" s="7">
-        <v>696228</v>
+        <v>649573</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>32</v>
@@ -10118,7 +10154,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025664</v>
+        <v>1033292</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>32</v>
@@ -10133,7 +10169,7 @@
         <v>2732</v>
       </c>
       <c r="N39" s="7">
-        <v>1721892</v>
+        <v>1682866</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>32</v>
